--- a/StructureDefinition-ncpi-drs-document-reference.xlsx
+++ b/StructureDefinition-ncpi-drs-document-reference.xlsx
@@ -6,16 +6,119 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Elements" r:id="rId3" sheetId="1"/>
+    <sheet name="Metadata" r:id="rId3" sheetId="1"/>
+    <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$46</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="411">
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://ncpi-fhir.github.io/ncpi-fhir-ig/StructureDefinition/ncpi-drs-document-reference</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.1.0</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>DRSDocumentReference</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>DRS Document Reference</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2021-09-14T17:59:08+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>NCPI FHIR Working Group</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>A FHIR Document Reference with an embedded DRS URI. See https://github.com/ga4gh/data-repository-service-schemas.</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>DocumentReference</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/DocumentReference</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Derivation</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
   <si>
     <t>Path</t>
   </si>
@@ -141,9 +244,6 @@
   </si>
   <si>
     <t>Mapping: XDS metadata equivalent</t>
-  </si>
-  <si>
-    <t>DocumentReference</t>
   </si>
   <si>
     <t/>
@@ -1316,29 +1416,185 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.703125" customWidth="true"/>
+    <col min="2" max="2" width="80.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AP46"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
+    <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -1391,5543 +1647,5525 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AO1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AP1" t="s" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>35</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>36</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>37</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="AO1" t="s" s="1">
-        <v>40</v>
-      </c>
-      <c r="AP1" t="s" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" hidden="true">
-      <c r="A2" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG7" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AF7" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="AH7" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>124</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>142</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>165</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>177</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>188</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>209</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>220</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>235</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>257</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>264</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>272</v>
+        <v>306</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>285</v>
+        <v>319</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>312</v>
+        <v>346</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>337</v>
+        <v>371</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>345</v>
+        <v>379</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>354</v>
+        <v>388</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>357</v>
+        <v>391</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>362</v>
+        <v>396</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>367</v>
+        <v>401</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>376</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP46">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI45">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-ncpi-drs-document-reference.xlsx
+++ b/StructureDefinition-ncpi-drs-document-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T17:59:08+00:00</t>
+    <t>2021-09-14T17:59:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-document-reference.xlsx
+++ b/StructureDefinition-ncpi-drs-document-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T17:59:16+00:00</t>
+    <t>2021-12-13T19:23:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-document-reference.xlsx
+++ b/StructureDefinition-ncpi-drs-document-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T19:23:29+00:00</t>
+    <t>2021-12-13T19:24:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-document-reference.xlsx
+++ b/StructureDefinition-ncpi-drs-document-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T19:24:22+00:00</t>
+    <t>2022-05-27T12:40:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-document-reference.xlsx
+++ b/StructureDefinition-ncpi-drs-document-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T12:40:13+00:00</t>
+    <t>2022-05-27T12:41:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-document-reference.xlsx
+++ b/StructureDefinition-ncpi-drs-document-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T12:41:17+00:00</t>
+    <t>2022-08-10T15:01:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1601,47 +1601,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.23828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.23046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="74.26171875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.99609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="74.265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.0" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.06640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="52.00390625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="52.0078125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="84.22265625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="84.2265625" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="62.9921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/StructureDefinition-ncpi-drs-document-reference.xlsx
+++ b/StructureDefinition-ncpi-drs-document-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T15:01:35+00:00</t>
+    <t>2022-08-10T15:02:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-document-reference.xlsx
+++ b/StructureDefinition-ncpi-drs-document-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T15:02:39+00:00</t>
+    <t>2022-08-23T15:00:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-document-reference.xlsx
+++ b/StructureDefinition-ncpi-drs-document-reference.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="412">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://ncpi-fhir.github.io/ncpi-fhir-ig/StructureDefinition/ncpi-drs-document-reference</t>
+    <t>https://nih-ncpi.github.io/ncpi-fhir-ig/StructureDefinition/ncpi-drs-document-reference</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T15:00:44+00:00</t>
+    <t>2022-09-13T16:54:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -289,571 +289,575 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>DocumentReference.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>DocumentReference.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>DocumentReference.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>DocumentReference.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>DocumentReference.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>DocumentReference.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>DocumentReference.masterIdentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Master Version Specific Identifier</t>
+  </si>
+  <si>
+    <t>Document identifier as assigned by the source of the document. This identifier is specific to this version of the document. This unique identifier may be used elsewhere to identify this version of the document.</t>
+  </si>
+  <si>
+    <t>CDA Document Id extension and root.</t>
+  </si>
+  <si>
+    <t>The structure and format of this Id shall be consistent with the specification corresponding to the formatCode attribute. (e.g. for a DICOM standard document a 64-character numeric UID, for an HL7 CDA format a serialization of the CDA Document Id extension and root in the form "oid^extension", where OID is a 64 digits max, and the Id is a 16 UTF-8 char max. If the OID is coded without the extension then the '^' character shall not be included.).</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>Composition.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>TXA-12</t>
+  </si>
+  <si>
+    <t>DocumentEntry.uniqueId</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier</t>
+  </si>
+  <si>
+    <t>Other identifiers for the document</t>
+  </si>
+  <si>
+    <t>Other identifiers associated with the document, including version independent identifiers.</t>
+  </si>
+  <si>
+    <t>.id / .setId</t>
+  </si>
+  <si>
+    <t>TXA-16?</t>
+  </si>
+  <si>
+    <t>DocumentEntry.entryUUID</t>
+  </si>
+  <si>
+    <t>DocumentReference.status</t>
+  </si>
+  <si>
+    <t>current | superseded | entered-in-error</t>
+  </si>
+  <si>
+    <t>The status of this document reference.</t>
+  </si>
+  <si>
+    <t>This is the status of the DocumentReference object, which might be independent from the docStatus element.
+This element is labeled as a modifier because the status contains the codes that mark the document or reference as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of the document reference.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/document-reference-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>interim: .completionCode="IN" &amp; ./statusCode[isNormalDatatype()]="active";  final: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and not(./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseDocument", code) and isNormalAct()]);  amended: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and ./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseDocument", code) and isNormalAct() and statusCode="completed"];  withdrawn : .completionCode=NI &amp;&amp;  ./statusCode[isNormalDatatype()]="obsolete"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>TXA-19</t>
+  </si>
+  <si>
+    <t>DocumentEntry.availabilityStatus</t>
+  </si>
+  <si>
+    <t>DocumentReference.docStatus</t>
+  </si>
+  <si>
+    <t>preliminary | final | amended | entered-in-error</t>
+  </si>
+  <si>
+    <t>The status of the underlying document.</t>
+  </si>
+  <si>
+    <t>The document that is pointed to might be in various lifecycle states.</t>
+  </si>
+  <si>
+    <t>Status of the underlying document.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/composition-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Composition.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>TXA-17</t>
+  </si>
+  <si>
+    <t>DocumentReference.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Kind of document (LOINC if possible)</t>
+  </si>
+  <si>
+    <t>Specifies the particular kind of document referenced  (e.g. History and Physical, Discharge Summary, Progress Note). This usually equates to the purpose of making the document referenced.</t>
+  </si>
+  <si>
+    <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
+  </si>
+  <si>
+    <t>Precise type of clinical document.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/c80-doc-typecodes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>Composition.type</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/code/@code 
+The typeCode should be mapped from the ClinicalDocument/code element to a set of document type codes configured in the affinity domain. One suggested coding system to use for typeCode is LOINC, in which case the mapping step can be omitted.</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>TXA-2</t>
+  </si>
+  <si>
+    <t>DocumentEntry.type</t>
+  </si>
+  <si>
+    <t>DocumentReference.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">claxs
+</t>
+  </si>
+  <si>
+    <t>Categorization of document</t>
+  </si>
+  <si>
+    <t>A categorization for the type of document referenced - helps for indexing and searching. This may be implied by or derived from the code specified in the DocumentReference.type.</t>
+  </si>
+  <si>
+    <t>Key metadata element describing the the category or classification of the document. This is a broader perspective that groups similar documents based on how they would be used. This is a primary key used in searching.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>High-level kind of a clinical document at a macro level.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
+  </si>
+  <si>
+    <t>Composition.class</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>Derived from a mapping of /ClinicalDocument/code/@code to an Affinity Domain specified coded value to use and coding system. Affinity Domains are encouraged to use the appropriate value for Type of Service, based on the LOINC Type of Service (see Page 53 of the LOINC User's Manual). Must be consistent with /ClinicalDocument/code/@code</t>
+  </si>
+  <si>
+    <t>DocumentEntry.class</t>
+  </si>
+  <si>
+    <t>DocumentReference.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Practitioner|Group|Device)
+</t>
+  </si>
+  <si>
+    <t>Who/what is the subject of the document</t>
+  </si>
+  <si>
+    <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>Composition.subject</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="SBJ"].role[typeCode="PAT"]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/recordTarget/</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>PID-3 (No standard way to define a Practitioner or Group subject in HL7 v2 MDM message)</t>
+  </si>
+  <si>
+    <t>DocumentEntry.patientId</t>
+  </si>
+  <si>
+    <t>DocumentReference.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indexed
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When this document reference was created</t>
+  </si>
+  <si>
+    <t>When the document reference was created.</t>
+  </si>
+  <si>
+    <t>Referencing/indexing time is used for tracking, organizing versions and searching.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>Composition.date</t>
+  </si>
+  <si>
+    <t>.availabilityTime[type="TS"]</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>DocumentReference.author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Device|Patient|RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>Who and/or what authored the document</t>
+  </si>
+  <si>
+    <t>Identifies who is responsible for adding the information to the document.</t>
+  </si>
+  <si>
+    <t>Not necessarily who did the actual data entry (i.e. typist) or who was the source (informant).</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>Composition.author</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="AUT"].role[classCode="ASSIGNED"]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/author</t>
+  </si>
+  <si>
+    <t>TXA-9 (No standard way to indicate a Device in HL7 v2 MDM message)</t>
+  </si>
+  <si>
+    <t>DocumentEntry.author</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+</t>
+  </si>
+  <si>
+    <t>Who/what authenticated the document</t>
+  </si>
+  <si>
+    <t>Which person or organization authenticates that this document is valid.</t>
+  </si>
+  <si>
+    <t>Represents a participant within the author institution who has legally authenticated or attested the document. Legal authentication implies that a document has been signed manually or electronically by the legal Authenticator.</t>
+  </si>
+  <si>
+    <t>Composition.attester</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="AUTHEN"].role[classCode="ASSIGNED"]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/legalAuthenticator</t>
+  </si>
+  <si>
+    <t>FiveWs.witness</t>
+  </si>
+  <si>
+    <t>TXA-10</t>
+  </si>
+  <si>
+    <t>DocumentEntry.legalAuthenticator</t>
+  </si>
+  <si>
+    <t>DocumentReference.custodian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization which maintains the document</t>
+  </si>
+  <si>
+    <t>Identifies the organization or group who is responsible for ongoing maintenance of and access to the document.</t>
+  </si>
+  <si>
+    <t>Identifies the logical organization (software system, vendor, or department) to go to find the current version, where to report issues, etc. This is different from the physical location (URL, disk drive, or server) of the document, which is the technical location of the document, which host may be delegated to the management of some other organization.</t>
+  </si>
+  <si>
+    <t>Composition.custodian</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="RCV"].role[classCode="CUST"].scoper[classCode="ORG" and determinerCode="INST"]</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Relationships to other documents</t>
+  </si>
+  <si>
+    <t>Relationships that this document has with other document references that already exist.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because documents that append to other documents are incomplete on their own.</t>
+  </si>
+  <si>
+    <t>Composition.relatesTo</t>
+  </si>
+  <si>
+    <t>.outboundRelationship</t>
+  </si>
+  <si>
+    <t>DocumentEntry Associations</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>DocumentReference.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>DocumentReference.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>DocumentReference.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>DocumentReference.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>DocumentReference.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>DocumentReference.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>DocumentReference.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>DocumentReference.masterIdentifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Master Version Specific Identifier</t>
-  </si>
-  <si>
-    <t>Document identifier as assigned by the source of the document. This identifier is specific to this version of the document. This unique identifier may be used elsewhere to identify this version of the document.</t>
-  </si>
-  <si>
-    <t>CDA Document Id extension and root.</t>
-  </si>
-  <si>
-    <t>The structure and format of this Id shall be consistent with the specification corresponding to the formatCode attribute. (e.g. for a DICOM standard document a 64-character numeric UID, for an HL7 CDA format a serialization of the CDA Document Id extension and root in the form "oid^extension", where OID is a 64 digits max, and the Id is a 16 UTF-8 char max. If the OID is coded without the extension then the '^' character shall not be included.).</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>Composition.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>TXA-12</t>
-  </si>
-  <si>
-    <t>DocumentEntry.uniqueId</t>
-  </si>
-  <si>
-    <t>DocumentReference.identifier</t>
-  </si>
-  <si>
-    <t>Other identifiers for the document</t>
-  </si>
-  <si>
-    <t>Other identifiers associated with the document, including version independent identifiers.</t>
-  </si>
-  <si>
-    <t>.id / .setId</t>
-  </si>
-  <si>
-    <t>TXA-16?</t>
-  </si>
-  <si>
-    <t>DocumentEntry.entryUUID</t>
-  </si>
-  <si>
-    <t>DocumentReference.status</t>
-  </si>
-  <si>
-    <t>current | superseded | entered-in-error</t>
-  </si>
-  <si>
-    <t>The status of this document reference.</t>
-  </si>
-  <si>
-    <t>This is the status of the DocumentReference object, which might be independent from the docStatus element.
-This element is labeled as a modifier because the status contains the codes that mark the document or reference as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The status of the document reference.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/document-reference-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>interim: .completionCode="IN" &amp; ./statusCode[isNormalDatatype()]="active";  final: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and not(./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseDocument", code) and isNormalAct()]);  amended: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and ./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseDocument", code) and isNormalAct() and statusCode="completed"];  withdrawn : .completionCode=NI &amp;&amp;  ./statusCode[isNormalDatatype()]="obsolete"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>TXA-19</t>
-  </si>
-  <si>
-    <t>DocumentEntry.availabilityStatus</t>
-  </si>
-  <si>
-    <t>DocumentReference.docStatus</t>
-  </si>
-  <si>
-    <t>preliminary | final | amended | entered-in-error</t>
-  </si>
-  <si>
-    <t>The status of the underlying document.</t>
-  </si>
-  <si>
-    <t>The document that is pointed to might be in various lifecycle states.</t>
-  </si>
-  <si>
-    <t>Status of the underlying document.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/composition-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Composition.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>TXA-17</t>
-  </si>
-  <si>
-    <t>DocumentReference.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Kind of document (LOINC if possible)</t>
-  </si>
-  <si>
-    <t>Specifies the particular kind of document referenced  (e.g. History and Physical, Discharge Summary, Progress Note). This usually equates to the purpose of making the document referenced.</t>
-  </si>
-  <si>
-    <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
-  </si>
-  <si>
-    <t>Precise type of clinical document.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-doc-typecodes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>Composition.type</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/code/@code 
-The typeCode should be mapped from the ClinicalDocument/code element to a set of document type codes configured in the affinity domain. One suggested coding system to use for typeCode is LOINC, in which case the mapping step can be omitted.</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>TXA-2</t>
-  </si>
-  <si>
-    <t>DocumentEntry.type</t>
-  </si>
-  <si>
-    <t>DocumentReference.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">claxs
-</t>
-  </si>
-  <si>
-    <t>Categorization of document</t>
-  </si>
-  <si>
-    <t>A categorization for the type of document referenced - helps for indexing and searching. This may be implied by or derived from the code specified in the DocumentReference.type.</t>
-  </si>
-  <si>
-    <t>Key metadata element describing the the category or classification of the document. This is a broader perspective that groups similar documents based on how they would be used. This is a primary key used in searching.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>High-level kind of a clinical document at a macro level.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
-  </si>
-  <si>
-    <t>Composition.class</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>Derived from a mapping of /ClinicalDocument/code/@code to an Affinity Domain specified coded value to use and coding system. Affinity Domains are encouraged to use the appropriate value for Type of Service, based on the LOINC Type of Service (see Page 53 of the LOINC User's Manual). Must be consistent with /ClinicalDocument/code/@code</t>
-  </si>
-  <si>
-    <t>DocumentEntry.class</t>
-  </si>
-  <si>
-    <t>DocumentReference.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|Group|Device)
-</t>
-  </si>
-  <si>
-    <t>Who/what is the subject of the document</t>
-  </si>
-  <si>
-    <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>Composition.subject</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="SBJ"].role[typeCode="PAT"]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/recordTarget/</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>PID-3 (No standard way to define a Practitioner or Group subject in HL7 v2 MDM message)</t>
-  </si>
-  <si>
-    <t>DocumentEntry.patientId</t>
-  </si>
-  <si>
-    <t>DocumentReference.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indexed
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>When this document reference was created</t>
-  </si>
-  <si>
-    <t>When the document reference was created.</t>
-  </si>
-  <si>
-    <t>Referencing/indexing time is used for tracking, organizing versions and searching.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>Composition.date</t>
-  </si>
-  <si>
-    <t>.availabilityTime[type="TS"]</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>DocumentReference.author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Device|Patient|RelatedPerson)
-</t>
-  </si>
-  <si>
-    <t>Who and/or what authored the document</t>
-  </si>
-  <si>
-    <t>Identifies who is responsible for adding the information to the document.</t>
-  </si>
-  <si>
-    <t>Not necessarily who did the actual data entry (i.e. typist) or who was the source (informant).</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>Composition.author</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="AUT"].role[classCode="ASSIGNED"]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/author</t>
-  </si>
-  <si>
-    <t>TXA-9 (No standard way to indicate a Device in HL7 v2 MDM message)</t>
-  </si>
-  <si>
-    <t>DocumentEntry.author</t>
-  </si>
-  <si>
-    <t>DocumentReference.authenticator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
-</t>
-  </si>
-  <si>
-    <t>Who/what authenticated the document</t>
-  </si>
-  <si>
-    <t>Which person or organization authenticates that this document is valid.</t>
-  </si>
-  <si>
-    <t>Represents a participant within the author institution who has legally authenticated or attested the document. Legal authentication implies that a document has been signed manually or electronically by the legal Authenticator.</t>
-  </si>
-  <si>
-    <t>Composition.attester</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="AUTHEN"].role[classCode="ASSIGNED"]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/legalAuthenticator</t>
-  </si>
-  <si>
-    <t>FiveWs.witness</t>
-  </si>
-  <si>
-    <t>TXA-10</t>
-  </si>
-  <si>
-    <t>DocumentEntry.legalAuthenticator</t>
-  </si>
-  <si>
-    <t>DocumentReference.custodian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization which maintains the document</t>
-  </si>
-  <si>
-    <t>Identifies the organization or group who is responsible for ongoing maintenance of and access to the document.</t>
-  </si>
-  <si>
-    <t>Identifies the logical organization (software system, vendor, or department) to go to find the current version, where to report issues, etc. This is different from the physical location (URL, disk drive, or server) of the document, which is the technical location of the document, which host may be delegated to the management of some other organization.</t>
-  </si>
-  <si>
-    <t>Composition.custodian</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="RCV"].role[classCode="CUST"].scoper[classCode="ORG" and determinerCode="INST"]</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Relationships to other documents</t>
-  </si>
-  <si>
-    <t>Relationships that this document has with other document references that already exist.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because documents that append to other documents are incomplete on their own.</t>
-  </si>
-  <si>
-    <t>Composition.relatesTo</t>
-  </si>
-  <si>
-    <t>.outboundRelationship</t>
-  </si>
-  <si>
-    <t>DocumentEntry Associations</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -1032,7 +1036,7 @@
     <t>DocumentReference.content.attachment</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment {https://ncpi-fhir.github.io/ncpi-fhir-ig/StructureDefinition/ncpi-drs-attachment}
+    <t xml:space="preserve">Attachment {https://nih-ncpi.github.io/ncpi-fhir-ig/StructureDefinition/ncpi-drs-attachment}
 </t>
   </si>
   <si>
@@ -4316,13 +4320,13 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>271</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4373,7 +4377,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4394,7 +4398,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4411,7 +4415,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4440,7 +4444,7 @@
         <v>136</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>138</v>
@@ -4493,7 +4497,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4514,7 +4518,7 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4531,11 +4535,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4557,10 +4561,10 @@
         <v>135</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>138</v>
@@ -4615,7 +4619,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4653,7 +4657,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4679,13 +4683,13 @@
         <v>109</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4714,10 +4718,10 @@
         <v>169</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
@@ -4735,7 +4739,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>89</v>
@@ -4753,10 +4757,10 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4768,12 +4772,12 @@
         <v>77</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4796,13 +4800,13 @@
         <v>90</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4853,7 +4857,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>89</v>
@@ -4871,10 +4875,10 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4886,12 +4890,12 @@
         <v>77</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4914,19 +4918,19 @@
         <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>271</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -4975,7 +4979,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4996,7 +5000,7 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -5005,15 +5009,15 @@
         <v>77</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5039,16 +5043,16 @@
         <v>187</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5073,13 +5077,13 @@
         <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
@@ -5097,7 +5101,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5115,27 +5119,27 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5161,10 +5165,10 @@
         <v>263</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5215,7 +5219,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>89</v>
@@ -5233,10 +5237,10 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -5253,7 +5257,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5276,13 +5280,13 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>271</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5333,7 +5337,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5354,7 +5358,7 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5371,7 +5375,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5400,7 +5404,7 @@
         <v>136</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>138</v>
@@ -5453,7 +5457,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5474,7 +5478,7 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5491,11 +5495,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5517,10 +5521,10 @@
         <v>135</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>138</v>
@@ -5575,7 +5579,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5613,7 +5617,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5636,16 +5640,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5695,7 +5699,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>89</v>
@@ -5704,10 +5708,10 @@
         <v>89</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>77</v>
@@ -5716,7 +5720,7 @@
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5725,7 +5729,7 @@
         <v>77</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>77</v>
@@ -5733,7 +5737,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5756,16 +5760,16 @@
         <v>90</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5794,10 +5798,10 @@
         <v>113</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>77</v>
@@ -5815,7 +5819,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5833,13 +5837,13 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5848,12 +5852,12 @@
         <v>77</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5879,13 +5883,13 @@
         <v>263</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5935,7 +5939,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5956,7 +5960,7 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5973,7 +5977,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5996,13 +6000,13 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>271</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6053,7 +6057,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6074,7 +6078,7 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -6091,7 +6095,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6120,7 +6124,7 @@
         <v>136</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>138</v>
@@ -6173,7 +6177,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6194,7 +6198,7 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6211,11 +6215,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6237,10 +6241,10 @@
         <v>135</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>138</v>
@@ -6295,7 +6299,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6333,7 +6337,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6356,13 +6360,13 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6413,7 +6417,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6428,19 +6432,19 @@
         <v>101</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>77</v>
@@ -6451,7 +6455,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6477,13 +6481,13 @@
         <v>187</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6512,10 +6516,10 @@
         <v>205</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>77</v>
@@ -6533,7 +6537,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6551,10 +6555,10 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6566,12 +6570,12 @@
         <v>77</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6594,13 +6598,13 @@
         <v>90</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6651,7 +6655,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6669,13 +6673,13 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6684,12 +6688,12 @@
         <v>77</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6715,10 +6719,10 @@
         <v>187</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6748,10 +6752,10 @@
         <v>205</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6769,7 +6773,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6787,13 +6791,13 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6802,12 +6806,12 @@
         <v>77</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6833,16 +6837,16 @@
         <v>187</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6870,10 +6874,10 @@
         <v>205</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -6891,7 +6895,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6909,14 +6913,14 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AM44" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6924,12 +6928,12 @@
         <v>77</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6952,13 +6956,13 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7009,7 +7013,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7042,12 +7046,12 @@
         <v>77</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7070,16 +7074,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7129,7 +7133,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7147,13 +7151,13 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7162,7 +7166,7 @@
         <v>77</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ncpi-drs-document-reference.xlsx
+++ b/StructureDefinition-ncpi-drs-document-reference.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="411">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-13T16:54:38+00:00</t>
+    <t>2022-10-11T14:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -262,10 +262,6 @@
   </si>
   <si>
     <t>Usually, this is used for documents other than those defined by FHIR.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1873,19 +1869,19 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>77</v>
@@ -1899,7 +1895,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1910,28 +1906,28 @@
         <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1981,13 +1977,13 @@
         <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
@@ -2019,7 +2015,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2030,25 +2026,25 @@
         <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2099,19 +2095,19 @@
         <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>77</v>
@@ -2137,7 +2133,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2148,28 +2144,28 @@
         <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2219,19 +2215,19 @@
         <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>77</v>
@@ -2257,7 +2253,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2268,7 +2264,7 @@
         <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -2280,16 +2276,16 @@
         <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2315,43 +2311,43 @@
         <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>77</v>
@@ -2377,18 +2373,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
@@ -2400,16 +2396,16 @@
         <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2459,28 +2455,28 @@
         <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>77</v>
@@ -2497,11 +2493,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2520,16 +2516,16 @@
         <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2579,7 +2575,7 @@
         <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>78</v>
@@ -2600,7 +2596,7 @@
         <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>77</v>
@@ -2617,11 +2613,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2640,16 +2636,16 @@
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2699,7 +2695,7 @@
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>78</v>
@@ -2711,7 +2707,7 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>77</v>
@@ -2720,7 +2716,7 @@
         <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>77</v>
@@ -2737,11 +2733,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2754,25 +2750,25 @@
         <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>77</v>
@@ -2821,7 +2817,7 @@
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>78</v>
@@ -2833,7 +2829,7 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>77</v>
@@ -2842,7 +2838,7 @@
         <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>77</v>
@@ -2859,7 +2855,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2870,31 +2866,31 @@
         <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>77</v>
@@ -2943,45 +2939,45 @@
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AO11" t="s" s="2">
+      <c r="AP11" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>158</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3001,16 +2997,16 @@
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3061,7 +3057,7 @@
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>78</v>
@@ -3073,33 +3069,33 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AO12" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AM12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AO12" t="s" s="2">
+      <c r="AP12" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AP12" t="s" s="2">
-        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3107,31 +3103,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="I13" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3157,69 +3153,69 @@
         <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="X13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="X13" t="s" s="2">
+      <c r="Y13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
+      <c r="AK13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AK13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AM13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AO13" t="s" s="2">
+      <c r="AP13" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AP13" t="s" s="2">
-        <v>176</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3230,28 +3226,28 @@
         <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3277,61 +3273,61 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AO14" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>77</v>
@@ -3339,7 +3335,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3350,28 +3346,28 @@
         <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J15" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3397,73 +3393,73 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
+      <c r="AK15" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AO15" t="s" s="2">
+      <c r="AP15" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>199</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3479,19 +3475,19 @@
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3517,14 +3513,14 @@
         <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3541,7 +3537,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3553,33 +3549,33 @@
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AO16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AP16" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3590,25 +3586,25 @@
         <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3659,77 +3655,77 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AO17" t="s" s="2">
+      <c r="AP17" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>222</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3779,34 +3775,34 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>77</v>
@@ -3817,7 +3813,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3837,19 +3833,19 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3899,7 +3895,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -3911,33 +3907,33 @@
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO19" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AN19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO19" t="s" s="2">
+      <c r="AP19" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>243</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3948,7 +3944,7 @@
         <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>77</v>
@@ -3960,16 +3956,16 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4019,45 +4015,45 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AO20" t="s" s="2">
+      <c r="AP20" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>254</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4068,7 +4064,7 @@
         <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>77</v>
@@ -4080,16 +4076,16 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4139,28 +4135,28 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4177,7 +4173,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4197,19 +4193,19 @@
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4259,7 +4255,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4271,33 +4267,33 @@
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AP22" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>269</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4308,7 +4304,7 @@
         <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>77</v>
@@ -4320,13 +4316,13 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4377,28 +4373,28 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4415,11 +4411,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4438,16 +4434,16 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L24" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4497,7 +4493,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4509,7 +4505,7 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>77</v>
@@ -4518,7 +4514,7 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4535,11 +4531,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4552,25 +4548,25 @@
         <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="M25" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4619,7 +4615,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4631,7 +4627,7 @@
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>77</v>
@@ -4640,7 +4636,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4657,7 +4653,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4665,31 +4661,31 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F26" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4715,69 +4711,69 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AP26" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>292</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4785,28 +4781,28 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F27" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4857,45 +4853,45 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AP27" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>299</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4906,31 +4902,31 @@
         <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -4979,19 +4975,19 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>77</v>
@@ -5000,24 +4996,24 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AM28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO28" t="s" s="2">
+      <c r="AP28" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>307</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5037,22 +5033,22 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5077,14 +5073,14 @@
         <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="X29" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="X29" t="s" s="2">
+      <c r="Y29" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5101,7 +5097,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5113,33 +5109,33 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AN29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO29" t="s" s="2">
+      <c r="AP29" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>320</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5147,7 +5143,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>79</v>
@@ -5159,16 +5155,16 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5219,10 +5215,10 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5231,16 +5227,16 @@
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -5257,7 +5253,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5268,7 +5264,7 @@
         <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>77</v>
@@ -5280,13 +5276,13 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5337,28 +5333,28 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5375,11 +5371,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5398,16 +5394,16 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K32" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5457,7 +5453,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5469,7 +5465,7 @@
         <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>77</v>
@@ -5478,7 +5474,7 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5495,11 +5491,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5512,25 +5508,25 @@
         <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="M33" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5579,7 +5575,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5591,7 +5587,7 @@
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>77</v>
@@ -5600,7 +5596,7 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5617,7 +5613,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5625,10 +5621,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5640,16 +5636,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5699,37 +5695,37 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AI34" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AI34" t="s" s="2">
+      <c r="AJ34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>77</v>
@@ -5737,7 +5733,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5748,28 +5744,28 @@
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J35" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5795,69 +5791,69 @@
         <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AP35" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>347</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5868,28 +5864,28 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5939,19 +5935,19 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>77</v>
@@ -5960,7 +5956,7 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5977,7 +5973,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5988,7 +5984,7 @@
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
@@ -6000,13 +5996,13 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6057,28 +6053,28 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -6095,11 +6091,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6118,16 +6114,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K38" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L38" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6177,7 +6173,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6189,7 +6185,7 @@
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>77</v>
@@ -6198,7 +6194,7 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6215,11 +6211,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6232,25 +6228,25 @@
         <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="M39" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6299,7 +6295,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6311,7 +6307,7 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>77</v>
@@ -6320,7 +6316,7 @@
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -6337,7 +6333,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6360,13 +6356,13 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6417,7 +6413,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6429,22 +6425,22 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>77</v>
@@ -6455,7 +6451,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6478,16 +6474,16 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6513,14 +6509,14 @@
         <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>369</v>
-      </c>
       <c r="Z41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6537,7 +6533,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6549,33 +6545,33 @@
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AP41" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>372</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6586,25 +6582,25 @@
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J42" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6655,45 +6651,45 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AP42" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>380</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6704,7 +6700,7 @@
         <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
@@ -6716,13 +6712,13 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6749,69 +6745,69 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="Y43" t="s" s="2">
+      <c r="Z43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AP43" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>389</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6822,7 +6818,7 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
@@ -6834,19 +6830,19 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6871,69 +6867,69 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Y44" t="s" s="2">
+      <c r="Z44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AP44" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AP44" t="s" s="2">
-        <v>397</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6944,7 +6940,7 @@
         <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
@@ -6956,13 +6952,13 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7013,32 +7009,32 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AM45" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
       </c>
@@ -7046,12 +7042,12 @@
         <v>77</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7074,16 +7070,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7133,7 +7129,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7145,28 +7141,28 @@
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AP46" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>411</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ncpi-drs-document-reference.xlsx
+++ b/StructureDefinition-ncpi-drs-document-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-11T14:45:04+00:00</t>
+    <t>2022-10-11T14:47:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-document-reference.xlsx
+++ b/StructureDefinition-ncpi-drs-document-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-11T14:47:05+00:00</t>
+    <t>2022-10-31T22:46:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-document-reference.xlsx
+++ b/StructureDefinition-ncpi-drs-document-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T22:46:37+00:00</t>
+    <t>2022-10-31T22:46:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-document-reference.xlsx
+++ b/StructureDefinition-ncpi-drs-document-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T22:46:57+00:00</t>
+    <t>2022-11-28T21:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-document-reference.xlsx
+++ b/StructureDefinition-ncpi-drs-document-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T21:06:44+00:00</t>
+    <t>2022-11-28T21:07:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-document-reference.xlsx
+++ b/StructureDefinition-ncpi-drs-document-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T21:07:57+00:00</t>
+    <t>2022-12-09T17:30:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-document-reference.xlsx
+++ b/StructureDefinition-ncpi-drs-document-reference.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="371">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T17:30:30+00:00</t>
+    <t>2023-09-15T20:59:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,132 +120,6 @@
     <t>constraint</t>
   </si>
   <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: FHIR Composition</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: CDA (R2)</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: XDS metadata equivalent</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -255,6 +129,10 @@
     <t>*</t>
   </si>
   <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
     <t>A reference to a document</t>
   </si>
   <si>
@@ -262,6 +140,10 @@
   </si>
   <si>
     <t>Usually, this is used for documents other than those defined by FHIR.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1409,10 +1291,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1592,7 +1474,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP46"/>
+  <dimension ref="A1:AQ45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1602,5567 +1484,5573 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="46.23828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.23828125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.22265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="74.265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.0" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.0" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="52.0078125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.421875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="52.0078125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="84.2265625" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="62.9921875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="84.2265625" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="62.9921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>35</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="AK1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="AM1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="AN1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="M1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AO1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AP1" t="s" s="1">
-        <v>76</v>
+      <c r="AO1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ1" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="AQ2" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="AQ3" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="AQ4" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="AQ5" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
+      <c r="E6" s="2"/>
+      <c r="F6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="F6" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="AQ6" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="AQ7" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="AQ8" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="P9" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="AQ9" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
+      </c>
+      <c r="AQ10" t="s" s="2">
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>157</v>
+        <v>122</v>
+      </c>
+      <c r="AQ11" t="s" s="2">
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>163</v>
+        <v>134</v>
+      </c>
+      <c r="AQ12" t="s" s="2">
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>173</v>
+        <v>35</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>175</v>
+        <v>144</v>
+      </c>
+      <c r="AQ13" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
+      </c>
+      <c r="AQ14" t="s" s="2">
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>185</v>
+        <v>35</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>198</v>
+        <v>35</v>
+      </c>
+      <c r="AQ15" t="s" s="2">
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>205</v>
+        <v>35</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>206</v>
+        <v>35</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>199</v>
+        <v>35</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>210</v>
+        <v>180</v>
+      </c>
+      <c r="AQ16" t="s" s="2">
+        <v>181</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>212</v>
+        <v>49</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>211</v>
+        <v>35</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>215</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>221</v>
+        <v>35</v>
+      </c>
+      <c r="AQ17" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>224</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>222</v>
+        <v>35</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>228</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
+      </c>
+      <c r="AQ18" t="s" s="2">
+        <v>202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>242</v>
+        <v>212</v>
+      </c>
+      <c r="AQ19" t="s" s="2">
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>244</v>
+        <v>35</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>243</v>
+        <v>35</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>248</v>
+        <v>197</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>251</v>
+        <v>35</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>252</v>
+        <v>35</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>253</v>
+        <v>35</v>
+      </c>
+      <c r="AQ20" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>255</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>254</v>
+        <v>35</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>259</v>
+        <v>35</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="AQ21" t="s" s="2">
+        <v>228</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>262</v>
+        <v>35</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>261</v>
+        <v>35</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>266</v>
+        <v>35</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>267</v>
+        <v>35</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>268</v>
+        <v>35</v>
+      </c>
+      <c r="AQ22" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>270</v>
+        <v>35</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>271</v>
+        <v>94</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>273</v>
+        <v>35</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="AQ23" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="P24" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>277</v>
+        <v>35</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="AQ24" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>280</v>
+        <v>68</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>137</v>
+        <v>245</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>282</v>
+        <v>35</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>131</v>
+        <v>249</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="AQ25" t="s" s="2">
+        <v>251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>287</v>
+        <v>35</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>288</v>
+        <v>35</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>283</v>
+        <v>35</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>88</v>
+        <v>252</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>289</v>
+        <v>35</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>291</v>
+        <v>35</v>
+      </c>
+      <c r="AQ26" t="s" s="2">
+        <v>258</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>293</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>292</v>
+        <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>88</v>
+        <v>259</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>296</v>
+        <v>35</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>297</v>
+        <v>35</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>298</v>
+        <v>265</v>
+      </c>
+      <c r="AQ27" t="s" s="2">
+        <v>266</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="O28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>299</v>
+        <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>305</v>
+        <v>35</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>306</v>
+        <v>278</v>
+      </c>
+      <c r="AQ28" t="s" s="2">
+        <v>279</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>308</v>
+        <v>222</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>312</v>
+        <v>35</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>313</v>
+        <v>35</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>314</v>
+        <v>35</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>307</v>
+        <v>35</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>315</v>
+        <v>35</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>318</v>
+        <v>35</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>319</v>
+        <v>35</v>
+      </c>
+      <c r="AQ29" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>262</v>
+        <v>35</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>321</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>320</v>
+        <v>35</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>88</v>
+        <v>233</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>323</v>
+        <v>35</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>324</v>
+        <v>35</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="AQ30" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>270</v>
+        <v>35</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>271</v>
+        <v>94</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>273</v>
+        <v>35</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="AQ31" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="P32" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>277</v>
+        <v>35</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="AQ32" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>137</v>
+        <v>291</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>282</v>
+        <v>35</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>139</v>
+        <v>293</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
+      </c>
+      <c r="AQ33" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>329</v>
+        <v>49</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>328</v>
+        <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>88</v>
+        <v>297</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>333</v>
+        <v>48</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>334</v>
+        <v>35</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>336</v>
+        <v>35</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="AQ34" t="s" s="2">
+        <v>306</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>338</v>
+        <v>49</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>339</v>
+        <v>222</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>342</v>
+        <v>35</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>343</v>
+        <v>35</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>337</v>
+        <v>35</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>344</v>
+        <v>35</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>324</v>
+        <v>35</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>346</v>
+        <v>35</v>
+      </c>
+      <c r="AQ35" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>262</v>
+        <v>35</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>348</v>
+        <v>230</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>349</v>
+        <v>231</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>350</v>
+        <v>232</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>347</v>
+        <v>35</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>351</v>
+        <v>35</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="AQ36" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>270</v>
+        <v>35</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>271</v>
+        <v>94</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>273</v>
+        <v>35</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="AQ37" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="P38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>277</v>
+        <v>35</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="AQ38" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>282</v>
+        <v>35</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>131</v>
+        <v>320</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="AQ39" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>356</v>
+        <v>35</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>357</v>
+        <v>146</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>355</v>
+        <v>35</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>78</v>
+        <v>323</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>359</v>
+        <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>360</v>
+        <v>35</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>362</v>
+        <v>35</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="AQ40" t="s" s="2">
+        <v>331</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>367</v>
+        <v>35</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>368</v>
+        <v>35</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>363</v>
+        <v>35</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>369</v>
+        <v>35</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>337</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>371</v>
+        <v>35</v>
+      </c>
+      <c r="AQ41" t="s" s="2">
+        <v>339</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>373</v>
+        <v>35</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>374</v>
+        <v>146</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>343</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>372</v>
+        <v>35</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>376</v>
+        <v>35</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>379</v>
+        <v>35</v>
+      </c>
+      <c r="AQ42" t="s" s="2">
+        <v>348</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>186</v>
+        <v>35</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>381</v>
+        <v>146</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>383</v>
+        <v>164</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>380</v>
+        <v>35</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>78</v>
+        <v>349</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>385</v>
+        <v>35</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>386</v>
+        <v>345</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>387</v>
+        <v>346</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>388</v>
+        <v>35</v>
+      </c>
+      <c r="AQ43" t="s" s="2">
+        <v>356</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>186</v>
+        <v>35</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>394</v>
+        <v>35</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>395</v>
+        <v>35</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>389</v>
+        <v>35</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>385</v>
+        <v>35</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>386</v>
+        <v>176</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>385</v>
+        <v>177</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>396</v>
+        <v>35</v>
+      </c>
+      <c r="AQ44" t="s" s="2">
+        <v>361</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>398</v>
+        <v>35</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>397</v>
+        <v>35</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>216</v>
+        <v>35</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>217</v>
+        <v>367</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>218</v>
+        <v>368</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>410</v>
+        <v>35</v>
+      </c>
+      <c r="AQ45" t="s" s="2">
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ncpi-drs-document-reference.xlsx
+++ b/StructureDefinition-ncpi-drs-document-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T20:59:49+00:00</t>
+    <t>2023-09-15T21:00:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
